--- a/document/casestudy/Check List CaseStudy C0220H1.xlsx
+++ b/document/casestudy/Check List CaseStudy C0220H1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Module</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Dương Kim Nguyên</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -431,32 +428,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,11 +455,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H70" sqref="H68:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -705,50 +702,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="65"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="A3" s="61">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -997,7 +994,7 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="3">
         <v>43914</v>
       </c>
@@ -1017,10 +1014,10 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="68">
         <v>2</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="21">
@@ -1270,7 +1267,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="21">
         <v>43914</v>
       </c>
@@ -1290,10 +1287,10 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+      <c r="A29" s="61">
         <v>3</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="3">
@@ -1542,7 +1539,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="3">
         <v>43914</v>
       </c>
@@ -1562,10 +1559,10 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73">
+      <c r="A42" s="63">
         <v>4</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="21">
@@ -1815,7 +1812,7 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="21">
         <v>43914</v>
       </c>
@@ -1835,10 +1832,10 @@
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="61">
         <v>5</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="3">
@@ -2087,7 +2084,7 @@
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="3">
         <v>43914</v>
       </c>
@@ -2107,10 +2104,10 @@
       <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73">
+      <c r="A68" s="63">
         <v>6</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="21">
@@ -2126,9 +2123,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="37"/>
-      <c r="H68" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H68" s="7"/>
       <c r="I68" s="8"/>
       <c r="J68" s="9"/>
     </row>
@@ -2148,9 +2143,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="37"/>
-      <c r="H69" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="9"/>
     </row>
@@ -2170,9 +2163,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="37"/>
-      <c r="H70" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="9"/>
     </row>
@@ -2366,7 +2357,7 @@
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="21">
         <v>43914</v>
       </c>
@@ -2386,10 +2377,10 @@
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="69">
+      <c r="A81" s="61">
         <v>7</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="3">
@@ -2638,7 +2629,7 @@
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="3">
         <v>43914</v>
       </c>
@@ -2658,10 +2649,10 @@
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73">
+      <c r="A94" s="63">
         <v>8</v>
       </c>
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="21">
@@ -2911,7 +2902,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="62"/>
-      <c r="B106" s="63"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="21">
         <v>43914</v>
       </c>
@@ -2931,10 +2922,10 @@
       <c r="J106" s="9"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="69">
+      <c r="A107" s="61">
         <v>9</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="65" t="s">
         <v>20</v>
       </c>
       <c r="C107" s="3">
@@ -3183,7 +3174,7 @@
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="62"/>
-      <c r="B119" s="63"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="3">
         <v>43914</v>
       </c>
@@ -3203,10 +3194,10 @@
       <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="73">
+      <c r="A120" s="63">
         <v>10</v>
       </c>
-      <c r="B120" s="61" t="s">
+      <c r="B120" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="21">
@@ -3456,7 +3447,7 @@
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="62"/>
-      <c r="B132" s="63"/>
+      <c r="B132" s="64"/>
       <c r="C132" s="21">
         <v>43914</v>
       </c>
@@ -3476,10 +3467,10 @@
       <c r="J132" s="15"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69">
+      <c r="A133" s="61">
         <v>11</v>
       </c>
-      <c r="B133" s="64" t="s">
+      <c r="B133" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="3">
@@ -3728,7 +3719,7 @@
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="62"/>
-      <c r="B145" s="63"/>
+      <c r="B145" s="64"/>
       <c r="C145" s="3">
         <v>43914</v>
       </c>
@@ -3748,10 +3739,10 @@
       <c r="J145" s="15"/>
     </row>
     <row r="146" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="73">
+      <c r="A146" s="63">
         <v>12</v>
       </c>
-      <c r="B146" s="61" t="s">
+      <c r="B146" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C146" s="21">
@@ -4001,7 +3992,7 @@
     </row>
     <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="62"/>
-      <c r="B158" s="63"/>
+      <c r="B158" s="64"/>
       <c r="C158" s="21">
         <v>43914</v>
       </c>
@@ -4021,10 +4012,10 @@
       <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="69">
+      <c r="A159" s="61">
         <v>13</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="65" t="s">
         <v>24</v>
       </c>
       <c r="C159" s="3">
@@ -4272,8 +4263,8 @@
       <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
-      <c r="B171" s="63"/>
+      <c r="A171" s="64"/>
+      <c r="B171" s="64"/>
       <c r="C171" s="3">
         <v>43914</v>
       </c>
@@ -4293,10 +4284,10 @@
       <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="73">
+      <c r="A172" s="63">
         <v>14</v>
       </c>
-      <c r="B172" s="61" t="s">
+      <c r="B172" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C172" s="21">
@@ -4546,7 +4537,7 @@
     </row>
     <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="62"/>
-      <c r="B184" s="63"/>
+      <c r="B184" s="64"/>
       <c r="C184" s="21">
         <v>43914</v>
       </c>
@@ -4577,8 +4568,8 @@
       <c r="I185" s="48"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="74"/>
-      <c r="B186" s="59"/>
+      <c r="A186" s="59"/>
+      <c r="B186" s="74"/>
       <c r="C186" s="42"/>
       <c r="D186" s="42"/>
       <c r="E186" s="46"/>
@@ -4731,8 +4722,8 @@
       <c r="I199" s="54"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="74"/>
-      <c r="B200" s="59"/>
+      <c r="A200" s="59"/>
+      <c r="B200" s="74"/>
       <c r="C200" s="42"/>
       <c r="D200" s="42"/>
       <c r="E200" s="46"/>
@@ -4885,8 +4876,8 @@
       <c r="I213" s="48"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="74"/>
-      <c r="B214" s="59"/>
+      <c r="A214" s="59"/>
+      <c r="B214" s="74"/>
       <c r="C214" s="42"/>
       <c r="D214" s="42"/>
       <c r="E214" s="46"/>
@@ -5039,8 +5030,8 @@
       <c r="I227" s="54"/>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="74"/>
-      <c r="B228" s="59"/>
+      <c r="A228" s="59"/>
+      <c r="B228" s="74"/>
       <c r="C228" s="42"/>
       <c r="D228" s="42"/>
       <c r="E228" s="46"/>
@@ -5193,8 +5184,8 @@
       <c r="I241" s="48"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="74"/>
-      <c r="B242" s="59"/>
+      <c r="A242" s="59"/>
+      <c r="B242" s="74"/>
       <c r="C242" s="42"/>
       <c r="D242" s="42"/>
       <c r="E242" s="46"/>
@@ -5347,8 +5338,8 @@
       <c r="I255" s="54"/>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="74"/>
-      <c r="B256" s="59"/>
+      <c r="A256" s="59"/>
+      <c r="B256" s="74"/>
       <c r="C256" s="42"/>
       <c r="D256" s="42"/>
       <c r="E256" s="46"/>
@@ -5501,8 +5492,8 @@
       <c r="I269" s="48"/>
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="74"/>
-      <c r="B270" s="74"/>
+      <c r="A270" s="59"/>
+      <c r="B270" s="59"/>
       <c r="C270" s="42"/>
       <c r="D270" s="42"/>
       <c r="E270" s="46"/>
@@ -8000,42 +7991,10 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A186:A199"/>
-    <mergeCell ref="A200:A213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="A133:A145"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="A159:A171"/>
-    <mergeCell ref="A172:A184"/>
-    <mergeCell ref="A228:A241"/>
-    <mergeCell ref="A242:A255"/>
-    <mergeCell ref="A256:A269"/>
-    <mergeCell ref="A270:A283"/>
-    <mergeCell ref="B270:B283"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="A94:A106"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B107:B119"/>
-    <mergeCell ref="B120:B132"/>
-    <mergeCell ref="B94:B106"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="A68:A80"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B213"/>
+    <mergeCell ref="B214:B227"/>
+    <mergeCell ref="B228:B241"/>
     <mergeCell ref="B146:B158"/>
     <mergeCell ref="B159:B171"/>
     <mergeCell ref="B172:B184"/>
@@ -8045,12 +8004,44 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B42:B54"/>
     <mergeCell ref="B133:B145"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="A94:A106"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="B107:B119"/>
+    <mergeCell ref="B120:B132"/>
+    <mergeCell ref="B94:B106"/>
+    <mergeCell ref="A228:A241"/>
+    <mergeCell ref="A242:A255"/>
+    <mergeCell ref="A256:A269"/>
+    <mergeCell ref="A270:A283"/>
+    <mergeCell ref="B270:B283"/>
     <mergeCell ref="B242:B255"/>
     <mergeCell ref="B256:B269"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B213"/>
-    <mergeCell ref="B214:B227"/>
-    <mergeCell ref="B228:B241"/>
+    <mergeCell ref="A186:A199"/>
+    <mergeCell ref="A200:A213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="A133:A145"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="A159:A171"/>
+    <mergeCell ref="A172:A184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
